--- a/excel/mag_average_degree_connectivity.xlsx
+++ b/excel/mag_average_degree_connectivity.xlsx
@@ -369,12 +369,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Broj suseda</t>
+          <t>Stepen</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Procenat</t>
+          <t>Prosecan stepen suseda</t>
         </is>
       </c>
     </row>

--- a/excel/mag_average_degree_connectivity.xlsx
+++ b/excel/mag_average_degree_connectivity.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -380,401 +380,393 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>21.66666666666667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>21.66666666666667</v>
+        <v>20.875</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>20.875</v>
+        <v>10.57575757575758</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>10.57575757575758</v>
+        <v>22.125</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22.125</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>39.4</v>
+        <v>15.71666666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>15.71666666666667</v>
+        <v>24.50420168067227</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>24.50420168067227</v>
+        <v>22.375</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>22.375</v>
+        <v>36.51851851851852</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>36.51851851851852</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>11.5</v>
+        <v>30.60606060606061</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>30.60606060606061</v>
+        <v>23.94166666666667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>23.94166666666667</v>
+        <v>25.96153846153846</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>25.96153846153846</v>
+        <v>34.90476190476191</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>34.90476190476191</v>
+        <v>27.34074074074074</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>27.34074074074074</v>
+        <v>28.8125</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>28.8125</v>
+        <v>20.41176470588235</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>20.41176470588235</v>
+        <v>28.68253968253968</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>28.68253968253968</v>
+        <v>16.78947368421053</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>16.78947368421053</v>
+        <v>34.34411764705882</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>34.34411764705882</v>
+        <v>28.80952380952381</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>28.80952380952381</v>
+        <v>23.27272727272727</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>23.27272727272727</v>
+        <v>30.97826086956522</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>30.97826086956522</v>
+        <v>40.3625</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>40.3625</v>
+        <v>27.16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>27.16</v>
+        <v>31.69230769230769</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" t="n">
-        <v>31.69230769230769</v>
+        <v>30.30357142857143</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="n">
-        <v>30.30357142857143</v>
+        <v>31.39655172413793</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="n">
-        <v>31.39655172413793</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="n">
-        <v>32.2</v>
+        <v>40.25806451612903</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32" t="n">
-        <v>40.25806451612903</v>
+        <v>32.66666666666666</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B33" t="n">
-        <v>32.66666666666666</v>
+        <v>32.57142857142857</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" t="n">
-        <v>32.57142857142857</v>
+        <v>23.83333333333333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35" t="n">
-        <v>23.83333333333333</v>
+        <v>40.92105263157895</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36" t="n">
-        <v>40.92105263157895</v>
+        <v>46.79316239316239</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="n">
-        <v>46.79316239316239</v>
+        <v>38.8875</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="n">
-        <v>38.8875</v>
+        <v>47.1219512195122</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>47.1219512195122</v>
+        <v>36.22222222222222</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" t="n">
-        <v>36.22222222222222</v>
+        <v>39.17391304347826</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" t="n">
-        <v>39.17391304347826</v>
+        <v>43.17021276595744</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B42" t="n">
-        <v>43.17021276595744</v>
+        <v>45.78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B43" t="n">
-        <v>45.78</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B44" t="n">
-        <v>44</v>
+        <v>39.16363636363636</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B45" t="n">
-        <v>39.16363636363636</v>
+        <v>41.56071428571428</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B46" t="n">
-        <v>41.56071428571428</v>
+        <v>27.78947368421053</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>27.78947368421053</v>
+        <v>27.45384615384615</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B48" t="n">
-        <v>27.45384615384615</v>
+        <v>38.15492957746479</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B49" t="n">
-        <v>38.15492957746479</v>
+        <v>35.72527472527472</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="B50" t="n">
-        <v>35.72527472527472</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>115</v>
-      </c>
-      <c r="B51" t="n">
         <v>30.33913043478261</v>
       </c>
     </row>
